--- a/SYM.xlsx
+++ b/SYM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jacobgarza/repos/Stock_Models/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41E579BD-7BCD-A44C-8DED-0A6A9167DA49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D23E4877-2A5D-8C49-97D3-2008330713C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19380" yWindow="560" windowWidth="16460" windowHeight="20920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/SYM.xlsx
+++ b/SYM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jacobgarza/repos/Stock_Models/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D23E4877-2A5D-8C49-97D3-2008330713C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1948578-A547-7E4C-BE5E-A98BB9526981}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19380" yWindow="560" windowWidth="16460" windowHeight="20920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19380" yWindow="560" windowWidth="16460" windowHeight="20920" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="56">
   <si>
     <t>Model</t>
   </si>
@@ -163,6 +163,45 @@
   </si>
   <si>
     <t>Class V-3 is 3 votes per share and A shares are 1 vote  per share</t>
+  </si>
+  <si>
+    <t>Systems</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Software maintenace </t>
+  </si>
+  <si>
+    <t>Operation services</t>
+  </si>
+  <si>
+    <t>Revenue</t>
+  </si>
+  <si>
+    <t>Cogs</t>
+  </si>
+  <si>
+    <t>Gross Profit</t>
+  </si>
+  <si>
+    <t>RD</t>
+  </si>
+  <si>
+    <t>SGA</t>
+  </si>
+  <si>
+    <t>Operating Expense</t>
+  </si>
+  <si>
+    <t>Operating Income</t>
+  </si>
+  <si>
+    <t>Taxes</t>
+  </si>
+  <si>
+    <t>Net Profit</t>
+  </si>
+  <si>
+    <t>EPS</t>
   </si>
 </sst>
 </file>
@@ -312,7 +351,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -333,6 +372,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -355,14 +395,14 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>11546</xdr:colOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>11545</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>48487</xdr:colOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>48486</xdr:colOff>
       <xdr:row>58</xdr:row>
       <xdr:rowOff>80818</xdr:rowOff>
     </xdr:to>
@@ -379,7 +419,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="17618364" y="0"/>
+          <a:off x="16948727" y="0"/>
           <a:ext cx="36941" cy="11464636"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -755,9 +795,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -871,11 +909,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBBD53B0-CC7A-4D38-8B43-AB607B5A39F2}">
   <dimension ref="A1:QA50"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="N3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="V17" sqref="V17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1048,12 +1086,20 @@
     </row>
     <row r="3" spans="1:443" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
+      <c r="B3" t="s">
+        <v>43</v>
+      </c>
       <c r="C3"/>
       <c r="T3" s="5"/>
+      <c r="V3">
+        <v>356</v>
+      </c>
       <c r="AC3" s="3"/>
     </row>
     <row r="4" spans="1:443" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>44</v>
+      </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
@@ -1073,7 +1119,9 @@
       <c r="S4" s="3"/>
       <c r="T4" s="3"/>
       <c r="U4" s="3"/>
-      <c r="V4" s="3"/>
+      <c r="V4" s="3">
+        <v>2</v>
+      </c>
       <c r="Z4" s="3"/>
       <c r="AA4" s="3"/>
       <c r="AB4" s="3"/>
@@ -1091,6 +1139,9 @@
       <c r="AN4" s="3"/>
     </row>
     <row r="5" spans="1:443" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>45</v>
+      </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
@@ -1110,9 +1161,14 @@
       <c r="S5" s="3"/>
       <c r="T5" s="3"/>
       <c r="U5" s="3"/>
-      <c r="V5" s="3"/>
+      <c r="V5" s="3">
+        <v>10</v>
+      </c>
     </row>
     <row r="6" spans="1:443" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="7" t="s">
+        <v>46</v>
+      </c>
       <c r="C6" s="9"/>
       <c r="D6" s="9"/>
       <c r="E6" s="9"/>
@@ -1132,7 +1188,10 @@
       <c r="S6" s="9"/>
       <c r="T6" s="9"/>
       <c r="U6" s="9"/>
-      <c r="V6" s="9"/>
+      <c r="V6" s="9">
+        <f>SUM(V3:V5)</f>
+        <v>368</v>
+      </c>
       <c r="Z6" s="9"/>
       <c r="AA6" s="9"/>
       <c r="AB6" s="9"/>
@@ -1150,6 +1209,9 @@
       <c r="AN6" s="9"/>
     </row>
     <row r="7" spans="1:443" x14ac:dyDescent="0.2">
+      <c r="B7" s="20" t="s">
+        <v>47</v>
+      </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
@@ -1169,8 +1231,14 @@
       <c r="S7" s="3"/>
       <c r="T7" s="3"/>
       <c r="U7" s="3"/>
+      <c r="V7">
+        <v>298</v>
+      </c>
     </row>
     <row r="8" spans="1:443" x14ac:dyDescent="0.2">
+      <c r="B8" s="20" t="s">
+        <v>48</v>
+      </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
@@ -1190,8 +1258,15 @@
       <c r="S8" s="3"/>
       <c r="T8" s="3"/>
       <c r="U8" s="3"/>
+      <c r="V8" s="3">
+        <f>V6-V7</f>
+        <v>70</v>
+      </c>
     </row>
     <row r="9" spans="1:443" x14ac:dyDescent="0.2">
+      <c r="B9" s="20" t="s">
+        <v>49</v>
+      </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
@@ -1211,8 +1286,14 @@
       <c r="S9" s="3"/>
       <c r="T9" s="3"/>
       <c r="U9" s="3"/>
+      <c r="V9" s="3">
+        <v>42</v>
+      </c>
     </row>
     <row r="10" spans="1:443" x14ac:dyDescent="0.2">
+      <c r="B10" s="20" t="s">
+        <v>50</v>
+      </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
@@ -1232,12 +1313,18 @@
       <c r="S10" s="3"/>
       <c r="T10" s="3"/>
       <c r="U10" s="3"/>
+      <c r="V10" s="3">
+        <v>47</v>
+      </c>
       <c r="Z10" s="3"/>
       <c r="AA10" s="3"/>
       <c r="AB10" s="3"/>
       <c r="AC10" s="3"/>
     </row>
     <row r="11" spans="1:443" x14ac:dyDescent="0.2">
+      <c r="B11" s="20" t="s">
+        <v>51</v>
+      </c>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
@@ -1257,7 +1344,10 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-      <c r="V11" s="3"/>
+      <c r="V11" s="3">
+        <f>V9+V10</f>
+        <v>89</v>
+      </c>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
@@ -1265,6 +1355,9 @@
       <c r="AD11" s="3"/>
     </row>
     <row r="12" spans="1:443" x14ac:dyDescent="0.2">
+      <c r="B12" s="20" t="s">
+        <v>52</v>
+      </c>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
@@ -1284,9 +1377,15 @@
       <c r="S12" s="3"/>
       <c r="T12" s="3"/>
       <c r="U12" s="3"/>
-      <c r="V12" s="3"/>
+      <c r="V12" s="3">
+        <f>V8-V11</f>
+        <v>-19</v>
+      </c>
     </row>
     <row r="13" spans="1:443" x14ac:dyDescent="0.2">
+      <c r="B13" s="20" t="s">
+        <v>53</v>
+      </c>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
@@ -1306,13 +1405,18 @@
       <c r="S13" s="3"/>
       <c r="T13" s="3"/>
       <c r="U13" s="3"/>
-      <c r="V13" s="3"/>
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
       <c r="Z13" s="3"/>
       <c r="AA13" s="3"/>
       <c r="AB13" s="3"/>
       <c r="AC13" s="3"/>
     </row>
     <row r="14" spans="1:443" x14ac:dyDescent="0.2">
+      <c r="B14" s="20" t="s">
+        <v>54</v>
+      </c>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
@@ -1332,7 +1436,10 @@
       <c r="S14" s="3"/>
       <c r="T14" s="3"/>
       <c r="U14" s="3"/>
-      <c r="V14" s="3"/>
+      <c r="V14" s="3">
+        <f>V12-V13</f>
+        <v>-19</v>
+      </c>
     </row>
     <row r="15" spans="1:443" x14ac:dyDescent="0.2">
       <c r="C15" s="3"/>
@@ -1775,9 +1882,15 @@
       <c r="QA15" s="3"/>
     </row>
     <row r="16" spans="1:443" x14ac:dyDescent="0.2">
+      <c r="B16" t="s">
+        <v>55</v>
+      </c>
       <c r="C16"/>
     </row>
     <row r="17" spans="2:45" x14ac:dyDescent="0.2">
+      <c r="B17" t="s">
+        <v>2</v>
+      </c>
       <c r="C17" s="6"/>
       <c r="D17" s="6"/>
       <c r="E17" s="6"/>
@@ -1797,7 +1910,9 @@
       <c r="S17" s="6"/>
       <c r="T17" s="6"/>
       <c r="U17" s="6"/>
-      <c r="V17" s="6"/>
+      <c r="V17" s="2">
+        <v>83</v>
+      </c>
       <c r="Z17" s="6"/>
       <c r="AA17" s="6"/>
       <c r="AB17" s="6"/>
@@ -2207,9 +2322,9 @@
         <f t="shared" ref="U25:V25" si="8">U6/U4</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="V25" s="18" t="e">
+      <c r="V25" s="18">
         <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
+        <v>184</v>
       </c>
       <c r="AA25" s="18" t="e">
         <f t="shared" ref="AA25:AC25" si="9">AA6/AA4</f>
@@ -2348,9 +2463,9 @@
         <f t="shared" ref="U26:V26" si="12">U11/U4</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="V26" s="18" t="e">
+      <c r="V26" s="18">
         <f t="shared" si="12"/>
-        <v>#DIV/0!</v>
+        <v>44.5</v>
       </c>
       <c r="AA26" s="18" t="e">
         <f t="shared" ref="AA26:AC26" si="13">AA11/AA4</f>
@@ -2489,9 +2604,9 @@
         <f t="shared" ref="U27:V27" si="16">U15/U4</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="V27" s="18" t="e">
+      <c r="V27" s="18">
         <f t="shared" si="16"/>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="AA27" s="18" t="e">
         <f t="shared" ref="AA27:AC27" si="17">AA15/AA4</f>

--- a/SYM.xlsx
+++ b/SYM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jacobgarza/repos/Stock_Models/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1948578-A547-7E4C-BE5E-A98BB9526981}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C848FA06-E748-A04D-B934-07C6A7C468F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19380" yWindow="560" windowWidth="16460" windowHeight="20920" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -910,10 +910,10 @@
   <dimension ref="A1:QA50"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="N3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="O3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="V17" sqref="V17"/>
+      <selection pane="bottomRight" activeCell="Q8" sqref="Q8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1921,6 +1921,10 @@
     </row>
     <row r="18" spans="2:45" x14ac:dyDescent="0.2">
       <c r="C18"/>
+      <c r="V18">
+        <f>V14/V17</f>
+        <v>-0.2289156626506024</v>
+      </c>
     </row>
     <row r="21" spans="2:45" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
